--- a/data1.xlsx
+++ b/data1.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="476">
   <si>
     <t>1970. 11. 대한석유공사 제3상압증류탑 수주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,16 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">EPC로 업역 확장 
-화공, 산업, 환경 사업 분야로 진출하다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경제(기술) 자립 
-엔지니어링 산업 육성의 소명을 실현하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2010 미국 시장 첫 진출 
         Dow Falcon 프로젝트 수주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -759,11 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Economic (Technological) Independence 
-Fostering Engineering Business</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1970 Korea Engineering, a technology service provider, is founded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,11 +778,6 @@
   </si>
   <si>
     <t>1983 Designated as engineering technology center of Samsung Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expanding Business to EPC
-Entering Hydrocarbon, Industrial and Environmental Businesses</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -928,10 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Leaping into Global Top-tier Company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2010 Enters US market for first time
 Awarded Dow Falcon Project</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1021,10 +997,6 @@
   </si>
   <si>
     <t>2018 Awarded refining crude flexibility project from ADNOC (UAE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pursuing Digital Innovation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2109,6 +2081,83 @@
   <si>
     <t>『Smart Work Place 3D』  구축
 (3D Model 기반 설계 업무 Platform)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awarded Onsan Plant from Ssangyong Oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awarded waste heat recovery facility from Goryeo Chemical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designated as engineering technology center of Samsung Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adopts computer-aided design (CAD) system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completes Giheung Plant for Samsung Semiconductor &amp; Telecommunications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registers as comprehensive environmental technology service provider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awarded TA/PTA plant from Samsung Petrochemical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Establishes Technology Research Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awarded water treatment facility from POSCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awarded EO/EG plant from Indonesia
+(First EPC turnkey project from overseas)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pursuing Digital Innovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Global Top-Tier로 도약하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaping into Global Top-tier Company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비약적 성장을 도모하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EPC로 업역 확장 
+화공, 산업, 환경 사업 분야로 진출하다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expanding Business to EPC
+Entering Hydrocarbon, Industrial and Environmental Businesses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic (Technological) Independence 
+Fostering Engineering Business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제(기술) 자립 
+엔지니어링 산업 육성의 소명을 실현하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,95 +2577,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2912,190 +2961,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>459</v>
+      <c r="B1" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>1</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>1</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="41">
         <v>1970</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>285</v>
+      <c r="E2" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>1970</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>286</v>
+        <v>266</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>1</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>1973</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>287</v>
+        <v>267</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>1</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>1974</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>288</v>
+        <v>268</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>1</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>1975</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>289</v>
+        <v>269</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>1</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>1976</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>290</v>
+        <v>270</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>1977</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>284</v>
+        <v>271</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>1978</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>283</v>
+        <v>272</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>1</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>1978</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>282</v>
+        <v>273</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="35.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="51">
+      <c r="B11" s="49">
         <v>1</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="50">
         <v>10</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="51">
         <v>1979</v>
       </c>
-      <c r="E11" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>281</v>
+      <c r="E11" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3159,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -3122,50 +3171,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="45">
+        <v>2</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="57">
+        <v>1981</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="47">
         <v>2</v>
       </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="59">
-        <v>1981</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="49">
-        <v>2</v>
-      </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3175,17 +3224,17 @@
         <v>1982</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="49">
+        <v>286</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="47">
         <v>2</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3195,17 +3244,17 @@
         <v>1983</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>163</v>
+        <v>287</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>2</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3215,17 +3264,17 @@
         <v>1983</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>233</v>
+        <v>288</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>2</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3235,17 +3284,17 @@
         <v>1984</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>165</v>
+        <v>289</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>2</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3255,17 +3304,17 @@
         <v>1985</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>169</v>
+        <v>290</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>2</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3275,17 +3324,17 @@
         <v>1986</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>170</v>
+        <v>291</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>2</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3295,17 +3344,17 @@
         <v>1987</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>171</v>
+        <v>292</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>2</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3315,35 +3364,36 @@
         <v>1987</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>172</v>
+        <v>293</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="35.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="51">
+      <c r="B11" s="49">
         <v>2</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="50">
         <v>10</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="54">
         <v>1988</v>
       </c>
-      <c r="F11" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>243</v>
+      <c r="F11" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3363,190 +3413,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>459</v>
+      <c r="B1" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>3</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>1</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="57">
         <v>1991</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>316</v>
+      <c r="E2" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <v>3</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>1991</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>317</v>
+      <c r="E3" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>3</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="5">
         <v>1992</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>318</v>
+      <c r="E4" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>3</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>1994</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>319</v>
+        <v>298</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>3</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>1994</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>320</v>
+        <v>299</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>3</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>1995</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>315</v>
+        <v>300</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>3</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>1996</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>314</v>
+        <v>301</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>3</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>1996</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>313</v>
+        <v>302</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>3</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>1999</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="35.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="51">
+      <c r="B11" s="49">
         <v>3</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="50">
         <v>10</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="54">
         <v>1999</v>
       </c>
-      <c r="E11" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>311</v>
+      <c r="E11" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3572,360 +3622,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>459</v>
+      <c r="B1" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>4</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>1</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="57">
         <v>2001</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>342</v>
+      <c r="E2" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <v>4</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>2001</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>343</v>
+        <v>316</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>4</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>2001</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>344</v>
+      <c r="E4" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>4</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>2002</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>345</v>
+        <v>318</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>2002</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>346</v>
+        <v>319</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>4</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>2002</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>347</v>
+        <v>320</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>4</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>2005</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>348</v>
+        <v>321</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>4</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>2005</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>349</v>
+        <v>322</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>4</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>2005</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>350</v>
+        <v>323</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="49">
+      <c r="B11" s="47">
         <v>4</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>2005</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>351</v>
+        <v>324</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="49">
+      <c r="B12" s="47">
         <v>4</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>11</v>
       </c>
       <c r="D12" s="5">
         <v>2005</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>352</v>
+        <v>325</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="49">
+      <c r="B13" s="47">
         <v>4</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>2006</v>
       </c>
-      <c r="E13" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>353</v>
+      <c r="E13" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="49">
+      <c r="B14" s="47">
         <v>4</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>13</v>
       </c>
       <c r="D14" s="5">
         <v>2007</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>354</v>
+        <v>327</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="49">
+      <c r="B15" s="47">
         <v>4</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>14</v>
       </c>
       <c r="D15" s="5">
         <v>2007</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>355</v>
+        <v>328</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <v>4</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="39">
         <v>15</v>
       </c>
       <c r="D16" s="5">
         <v>2007</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>356</v>
+        <v>329</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="49">
+      <c r="B17" s="47">
         <v>4</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="39">
         <v>16</v>
       </c>
       <c r="D17" s="5">
         <v>2007</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>357</v>
+        <v>330</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="49">
+      <c r="B18" s="47">
         <v>4</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="39">
         <v>17</v>
       </c>
       <c r="D18" s="5">
         <v>2009</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>358</v>
+        <v>331</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="49">
+      <c r="B19" s="47">
         <v>4</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="39">
         <v>18</v>
       </c>
       <c r="D19" s="5">
         <v>2009</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>359</v>
+      <c r="E19" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="49">
+      <c r="B20" s="47">
         <v>4</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="39">
         <v>19</v>
       </c>
       <c r="D20" s="5">
         <v>2009</v>
       </c>
-      <c r="E20" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>360</v>
+      <c r="E20" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="51">
+      <c r="B21" s="49">
         <v>4</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="50">
         <v>20</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="62">
         <v>2009</v>
       </c>
-      <c r="E21" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>341</v>
+      <c r="E21" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3950,564 +4000,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>459</v>
+      <c r="B1" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>5</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>1</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="57">
         <v>2010</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>366</v>
+      <c r="E2" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <v>5</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>2010</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>365</v>
+        <v>356</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>5</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="5">
         <v>2010</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>5</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>2011</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>367</v>
+        <v>390</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>5</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>2012</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>368</v>
+        <v>391</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>2013</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>369</v>
+        <v>392</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>5</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>2011</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>370</v>
+        <v>393</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>5</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>2010</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>371</v>
+        <v>394</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>5</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>2011</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>372</v>
+        <v>395</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="49">
+      <c r="B11" s="47">
         <v>5</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>2012</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>373</v>
+        <v>396</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="49">
+      <c r="B12" s="47">
         <v>5</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>11</v>
       </c>
       <c r="D12" s="5">
         <v>2012</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>374</v>
+        <v>397</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="49">
+      <c r="B13" s="47">
         <v>5</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>12</v>
       </c>
       <c r="D13" s="5">
         <v>2012</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>375</v>
+        <v>398</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="49">
+      <c r="B14" s="47">
         <v>5</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>13</v>
       </c>
       <c r="D14" s="5">
         <v>2013</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>376</v>
+        <v>399</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="49">
+      <c r="B15" s="47">
         <v>5</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>14</v>
       </c>
       <c r="D15" s="5">
         <v>2015</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>377</v>
+        <v>400</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <v>5</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="39">
         <v>15</v>
       </c>
       <c r="D16" s="5">
         <v>2015</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>378</v>
+        <v>401</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="49">
+      <c r="B17" s="47">
         <v>5</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="39">
         <v>16</v>
       </c>
       <c r="D17" s="5">
         <v>2016</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>379</v>
+        <v>402</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="49">
+      <c r="B18" s="47">
         <v>5</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="39">
         <v>17</v>
       </c>
       <c r="D18" s="5">
         <v>2016</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>380</v>
+        <v>403</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="49">
+      <c r="B19" s="47">
         <v>5</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="39">
         <v>18</v>
       </c>
       <c r="D19" s="5">
         <v>2016</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>381</v>
+        <v>404</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="49">
+      <c r="B20" s="47">
         <v>5</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="39">
         <v>19</v>
       </c>
       <c r="D20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>382</v>
+        <v>405</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="49">
+      <c r="B21" s="47">
         <v>5</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="39">
         <v>20</v>
       </c>
       <c r="D21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>383</v>
+        <v>406</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="49">
+      <c r="B22" s="47">
         <v>5</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="39">
         <v>21</v>
       </c>
       <c r="D22" s="5">
         <v>2016</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>384</v>
+        <v>407</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="49">
+      <c r="B23" s="47">
         <v>5</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="39">
         <v>22</v>
       </c>
       <c r="D23" s="5">
         <v>2017</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>385</v>
+        <v>408</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="49">
+      <c r="B24" s="47">
         <v>5</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="39">
         <v>23</v>
       </c>
       <c r="D24" s="5">
         <v>2017</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>386</v>
+        <v>409</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="49">
+      <c r="B25" s="47">
         <v>5</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="39">
         <v>24</v>
       </c>
       <c r="D25" s="5">
         <v>2017</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>387</v>
+        <v>410</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="49">
+      <c r="B26" s="47">
         <v>5</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="39">
         <v>25</v>
       </c>
       <c r="D26" s="5">
         <v>2017</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>388</v>
+        <v>411</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="49">
+      <c r="B27" s="47">
         <v>5</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="39">
         <v>26</v>
       </c>
       <c r="D27" s="5">
         <v>2018</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>389</v>
+        <v>412</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="49">
+      <c r="B28" s="47">
         <v>5</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="39">
         <v>27</v>
       </c>
       <c r="D28" s="5">
         <v>2018</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>390</v>
+        <v>413</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="49">
+      <c r="B29" s="47">
         <v>5</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="39">
         <v>28</v>
       </c>
       <c r="D29" s="5">
         <v>2018</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>391</v>
+        <v>414</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="49">
+      <c r="B30" s="47">
         <v>5</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="39">
         <v>29</v>
       </c>
       <c r="D30" s="5">
         <v>2019</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>392</v>
+        <v>415</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="49">
+      <c r="B31" s="47">
         <v>5</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="39">
         <v>30</v>
       </c>
       <c r="D31" s="5">
         <v>2019</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>393</v>
+        <v>416</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="49">
+      <c r="B32" s="47">
         <v>5</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="39">
         <v>31</v>
       </c>
       <c r="D32" s="5">
         <v>2019</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>394</v>
+        <v>417</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="35.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B33" s="51">
+      <c r="B33" s="49">
         <v>5</v>
       </c>
-      <c r="C33" s="52">
+      <c r="C33" s="50">
         <v>32</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="51">
         <v>2019</v>
       </c>
-      <c r="E33" s="56" t="s">
-        <v>424</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>395</v>
+      <c r="E33" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4533,309 +4583,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>459</v>
+      <c r="B1" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>6</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="40">
         <v>1</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D2" s="56">
         <v>2020</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>441</v>
+      <c r="E2" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <v>6</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>2020</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>442</v>
+        <v>420</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>6</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>2020</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>443</v>
+        <v>457</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="49">
+      <c r="B5" s="47">
         <v>6</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>4</v>
       </c>
       <c r="D5" s="5">
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>444</v>
+        <v>421</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>6</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>445</v>
+        <v>422</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>6</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>6</v>
       </c>
       <c r="D7" s="5">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>446</v>
+        <v>423</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>6</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>447</v>
+        <v>424</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="49">
+      <c r="B9" s="47">
         <v>6</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>8</v>
       </c>
       <c r="D9" s="5">
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>448</v>
+        <v>425</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>6</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>9</v>
       </c>
       <c r="D10" s="5">
         <v>2021</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>449</v>
+        <v>426</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="49">
+      <c r="B11" s="47">
         <v>6</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>10</v>
       </c>
       <c r="D11" s="5">
         <v>2021</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>450</v>
+        <v>427</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="49">
+      <c r="B12" s="47">
         <v>6</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>11</v>
       </c>
       <c r="D12" s="5">
         <v>2021</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>451</v>
+        <v>428</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="49">
+      <c r="B13" s="47">
         <v>6</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>12</v>
       </c>
       <c r="D13" s="5">
         <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>452</v>
+        <v>429</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="49">
+      <c r="B14" s="47">
         <v>6</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>13</v>
       </c>
       <c r="D14" s="5">
         <v>2021</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>453</v>
+        <v>430</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="49">
+      <c r="B15" s="47">
         <v>6</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>14</v>
       </c>
       <c r="D15" s="5">
         <v>2022</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>454</v>
+        <v>431</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <v>6</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="39">
         <v>15</v>
       </c>
       <c r="D16" s="5">
         <v>2022</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>455</v>
+        <v>432</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="49">
+      <c r="B17" s="47">
         <v>6</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="39">
         <v>16</v>
       </c>
       <c r="D17" s="5">
         <v>2022</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>456</v>
+        <v>433</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="51">
+      <c r="B18" s="49">
         <v>6</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="50">
         <v>17</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <v>2022</v>
       </c>
-      <c r="E18" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>457</v>
+      <c r="E18" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -4848,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4863,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
@@ -4872,17 +4922,17 @@
         <v>54</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="39"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
@@ -4891,15 +4941,15 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
-        <v>150</v>
+        <v>475</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>155</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="40"/>
-      <c r="B3" s="36">
+      <c r="A3" s="38"/>
+      <c r="B3" s="64">
         <v>1970</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -4912,12 +4962,12 @@
         <v>59</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="40"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -4928,12 +4978,12 @@
         <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="40"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4944,12 +4994,12 @@
         <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="40"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
@@ -4960,12 +5010,12 @@
         <v>62</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="40"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
@@ -4976,12 +5026,12 @@
         <v>63</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="40"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
@@ -4992,12 +5042,12 @@
         <v>64</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="40"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
@@ -5005,15 +5055,15 @@
         <v>1977</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="40"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
@@ -5024,12 +5074,12 @@
         <v>66</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="40"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
@@ -5037,15 +5087,15 @@
         <v>1978</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
@@ -5056,11 +5106,11 @@
         <v>65</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="40"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -5069,15 +5119,15 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="17" t="s">
-        <v>149</v>
+        <v>472</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>164</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="40"/>
-      <c r="B14" s="36">
+      <c r="A14" s="38"/>
+      <c r="B14" s="64">
         <v>1980</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5090,12 +5140,12 @@
         <v>67</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="40"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
@@ -5106,12 +5156,12 @@
         <v>68</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="40"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
@@ -5122,12 +5172,12 @@
         <v>69</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="40"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
@@ -5138,12 +5188,12 @@
         <v>70</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="40"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
@@ -5154,12 +5204,12 @@
         <v>71</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="40"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
@@ -5170,12 +5220,12 @@
         <v>72</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="40"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -5186,12 +5236,12 @@
         <v>73</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="40"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
@@ -5202,12 +5252,12 @@
         <v>74</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="40"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
@@ -5218,12 +5268,12 @@
         <v>75</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
@@ -5231,14 +5281,14 @@
         <v>1988</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="40"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
@@ -5250,12 +5300,12 @@
         <v>21</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="40"/>
-      <c r="B25" s="36">
+      <c r="A25" s="38"/>
+      <c r="B25" s="64">
         <v>1990</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -5268,12 +5318,12 @@
         <v>76</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="40"/>
-      <c r="B26" s="36"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
@@ -5284,12 +5334,12 @@
         <v>77</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="40"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
@@ -5300,12 +5350,12 @@
         <v>78</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="40"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
@@ -5316,12 +5366,12 @@
         <v>79</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="40"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="5" t="s">
         <v>26</v>
       </c>
@@ -5332,12 +5382,12 @@
         <v>80</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="40"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="5" t="s">
         <v>27</v>
       </c>
@@ -5348,12 +5398,12 @@
         <v>81</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="40"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
@@ -5364,12 +5414,12 @@
         <v>82</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="40"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
@@ -5380,12 +5430,12 @@
         <v>83</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="40"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
@@ -5396,12 +5446,12 @@
         <v>84</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="40"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="4" t="s">
         <v>57</v>
       </c>
@@ -5412,11 +5462,11 @@
         <v>85</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="40"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="15" t="s">
         <v>10</v>
       </c>
@@ -5425,15 +5475,15 @@
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>471</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="40"/>
-      <c r="B36" s="36">
+      <c r="A36" s="38"/>
+      <c r="B36" s="64">
         <v>2000</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -5446,12 +5496,12 @@
         <v>86</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="40"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="8" t="s">
         <v>33</v>
       </c>
@@ -5462,12 +5512,12 @@
         <v>87</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="40"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="9" t="s">
         <v>34</v>
       </c>
@@ -5475,15 +5525,15 @@
         <v>2001</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="40"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="8" t="s">
         <v>35</v>
       </c>
@@ -5494,12 +5544,12 @@
         <v>89</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="40"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="8" t="s">
         <v>36</v>
       </c>
@@ -5510,12 +5560,12 @@
         <v>90</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="40"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="8" t="s">
         <v>38</v>
       </c>
@@ -5523,15 +5573,15 @@
         <v>2002</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="40"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="8" t="s">
         <v>39</v>
       </c>
@@ -5542,12 +5592,12 @@
         <v>88</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="40"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="8" t="s">
         <v>40</v>
       </c>
@@ -5558,12 +5608,12 @@
         <v>91</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="40"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="8" t="s">
         <v>41</v>
       </c>
@@ -5571,15 +5621,15 @@
         <v>2005</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="40"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="8" t="s">
         <v>42</v>
       </c>
@@ -5590,12 +5640,12 @@
         <v>92</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="40"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="8" t="s">
         <v>43</v>
       </c>
@@ -5606,12 +5656,12 @@
         <v>93</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="40"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="9" t="s">
         <v>44</v>
       </c>
@@ -5622,12 +5672,12 @@
         <v>94</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="40"/>
-      <c r="B48" s="36"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="8" t="s">
         <v>45</v>
       </c>
@@ -5638,12 +5688,12 @@
         <v>95</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="40"/>
-      <c r="B49" s="36"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="8" t="s">
         <v>46</v>
       </c>
@@ -5654,12 +5704,12 @@
         <v>96</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="40"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="8" t="s">
         <v>47</v>
       </c>
@@ -5670,12 +5720,12 @@
         <v>97</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="40"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="8" t="s">
         <v>48</v>
       </c>
@@ -5686,12 +5736,12 @@
         <v>98</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="40"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="8" t="s">
         <v>49</v>
       </c>
@@ -5702,12 +5752,12 @@
         <v>99</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="40"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="8" t="s">
         <v>50</v>
       </c>
@@ -5718,12 +5768,12 @@
         <v>100</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="40"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="8" t="s">
         <v>51</v>
       </c>
@@ -5734,12 +5784,12 @@
         <v>102</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="40"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="10" t="s">
         <v>52</v>
       </c>
@@ -5750,11 +5800,11 @@
         <v>101</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="40"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="15" t="s">
         <v>103</v>
       </c>
@@ -5763,451 +5813,451 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="17" t="s">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>196</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="40"/>
-      <c r="B57" s="36">
+      <c r="A57" s="38"/>
+      <c r="B57" s="64">
         <v>2010</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="38">
+      <c r="D57" s="36">
         <v>2010</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="40"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="38">
+      <c r="D58" s="36">
         <v>2010</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="40"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="38">
+      <c r="D59" s="36">
         <v>2010</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="40"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="38">
+      <c r="D60" s="36">
         <v>2011</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="40"/>
-      <c r="B61" s="36"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="38">
+      <c r="D61" s="36">
         <v>2012</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="40"/>
-      <c r="B62" s="36"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="38">
+      <c r="D62" s="36">
         <v>2013</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="40"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="38">
+      <c r="D63" s="36">
         <v>2011</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="40"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="38">
+      <c r="D64" s="36">
         <v>2010</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>111</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="40"/>
-      <c r="B65" s="36"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="38">
+      <c r="D65" s="36">
         <v>2011</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="40"/>
-      <c r="B66" s="36"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="38">
+      <c r="D66" s="36">
         <v>2012</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>113</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="40"/>
-      <c r="B67" s="36"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="38">
+      <c r="D67" s="36">
         <v>2012</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="40"/>
-      <c r="B68" s="36"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="38">
+      <c r="D68" s="36">
         <v>2012</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="40"/>
-      <c r="B69" s="36"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="38">
+      <c r="D69" s="36">
         <v>2013</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>116</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="40"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="38">
+      <c r="D70" s="36">
         <v>2015</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="40"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="38">
+      <c r="D71" s="36">
         <v>2015</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="40"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="38">
+      <c r="D72" s="36">
         <v>2016</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="40"/>
-      <c r="B73" s="36"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="38">
+      <c r="D73" s="36">
         <v>2016</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>119</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="40"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="38">
+      <c r="D74" s="36">
         <v>2016</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="40"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="38">
+      <c r="D75" s="36">
         <v>2016</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="40"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="38">
+      <c r="D76" s="36">
         <v>2016</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="40"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="38">
+      <c r="D77" s="36">
         <v>2016</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="40"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="38">
+      <c r="D78" s="36">
         <v>2017</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="40"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="38">
+      <c r="D79" s="36">
         <v>2017</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>125</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="40"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="38">
+      <c r="D80" s="36">
         <v>2017</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="40"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="38">
+      <c r="D81" s="36">
         <v>2017</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="40"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="38">
+      <c r="D82" s="36">
         <v>2018</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>128</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="40"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="64"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="38">
+      <c r="D83" s="36">
         <v>2018</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>129</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="40"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="64"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="38">
+      <c r="D84" s="36">
         <v>2018</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="40"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="38">
+      <c r="D85" s="36">
         <v>2019</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="40"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="38">
+      <c r="D86" s="36">
         <v>2019</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>131</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="40"/>
-      <c r="B87" s="36"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="64"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="38">
+      <c r="D87" s="36">
         <v>2019</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>132</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="40"/>
-      <c r="B88" s="37"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="65"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
         <v>2019</v>
@@ -6216,11 +6266,11 @@
         <v>133</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="40"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="16" t="s">
         <v>103</v>
       </c>
@@ -6232,12 +6282,12 @@
         <v>134</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>219</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="40"/>
-      <c r="B90" s="36">
+      <c r="A90" s="38"/>
+      <c r="B90" s="64">
         <v>2020</v>
       </c>
       <c r="C90" s="2"/>
@@ -6246,199 +6296,199 @@
         <v>135</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="40"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="40"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="40"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="40"/>
-      <c r="B94" s="36"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="40"/>
-      <c r="B95" s="36"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="64"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="9" t="s">
         <v>148</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="40"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="40"/>
-      <c r="B97" s="36"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="64"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="40"/>
-      <c r="B98" s="36"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="64"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="40"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="40"/>
-      <c r="B100" s="36"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="64"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="40"/>
-      <c r="B101" s="36"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="9" t="s">
         <v>144</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="40"/>
-      <c r="B102" s="36"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="64"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="9" t="s">
         <v>145</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="40"/>
-      <c r="B103" s="36"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="64"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="40"/>
-      <c r="B104" s="36"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="64"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="40"/>
-      <c r="B105" s="36"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="35" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="40"/>
-      <c r="B106" s="37"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="65"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="11" t="s">
         <v>147</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3034" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-28920" yWindow="-3034" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1970" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="294">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>1987. 05. 포항제철(POSCO) 수처리 설비 수주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 기업으로 변화하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비약적 성장을 도모하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,6 +1079,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Transformation into a Global Company</t>
+  </si>
+  <si>
     <t>Leaping Forward as a Global Top-tier</t>
   </si>
   <si>
@@ -1162,6 +1173,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Expanding Business to EPC
+Entering Hydrocarbon, Industrial and Environmental Businesses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Adopts CAD, the computer-aided design system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1175,6 +1191,19 @@
   </si>
   <si>
     <t>Builds S-ARMS, the AR quality management system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic·Technological Independence 
+Fostering Engineering Business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EPC로 확장 화공, 산업, 환경 사업 분야로 진출하다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔지니어링 산업 육성의 소명을 실현하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1290,33 +1319,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엔지니어링 산업 육성의 소명을 실현하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Economic·Technological Independence 
-Fostering Engineering Business</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EPC로 확장 화공, 산업, 환경 사업 분야로 진출하다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expanding Business to EPC
-Entering Hydrocarbon, Industrial and Environmental Businesses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비약적 성장을 도모하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌 기업으로 변화하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transformation into a Global Company</t>
+    <t>Muharraq Sewage Treatment Project (Bahrain)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,7 +1327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,6 +1391,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1968,10 +1979,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2308,19 +2319,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2334,10 +2345,10 @@
         <v>1970</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2351,10 +2362,10 @@
         <v>1970</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2368,10 +2379,10 @@
         <v>1973</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2385,10 +2396,10 @@
         <v>1974</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2402,10 +2413,10 @@
         <v>1975</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2419,10 +2430,10 @@
         <v>1976</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2436,10 +2447,10 @@
         <v>1977</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2453,10 +2464,10 @@
         <v>1978</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2470,10 +2481,10 @@
         <v>1978</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="35.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -2487,10 +2498,10 @@
         <v>1979</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2527,22 +2538,22 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2559,10 +2570,10 @@
         <v>1981</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2579,10 +2590,10 @@
         <v>1982</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -2599,10 +2610,10 @@
         <v>1983</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2619,10 +2630,10 @@
         <v>1983</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -2639,10 +2650,10 @@
         <v>1984</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -2659,10 +2670,10 @@
         <v>1985</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2679,10 +2690,10 @@
         <v>1986</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2699,10 +2710,10 @@
         <v>1987</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2719,10 +2730,10 @@
         <v>1987</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="35.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -2733,16 +2744,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="38">
         <v>1988</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2771,19 +2782,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2797,10 +2808,10 @@
         <v>1991</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -2814,10 +2825,10 @@
         <v>1991</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2831,10 +2842,10 @@
         <v>1992</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2848,10 +2859,10 @@
         <v>1994</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2872,10 +2883,10 @@
         <v>1994</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2889,10 +2900,10 @@
         <v>1995</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2906,10 +2917,10 @@
         <v>1996</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2923,10 +2934,10 @@
         <v>1996</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -2940,10 +2951,10 @@
         <v>1999</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="35.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -2957,10 +2968,10 @@
         <v>1999</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2994,19 +3005,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3020,10 +3031,10 @@
         <v>2001</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3037,10 +3048,10 @@
         <v>2001</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3054,10 +3065,10 @@
         <v>2001</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3071,10 +3082,10 @@
         <v>2002</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3088,10 +3099,10 @@
         <v>2002</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3105,10 +3116,10 @@
         <v>2002</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3122,10 +3133,10 @@
         <v>2005</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3139,10 +3150,10 @@
         <v>2005</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3156,10 +3167,10 @@
         <v>2005</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3173,10 +3184,10 @@
         <v>2005</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3190,10 +3201,10 @@
         <v>2005</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3207,10 +3218,10 @@
         <v>2006</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3224,10 +3235,10 @@
         <v>2007</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3241,10 +3252,10 @@
         <v>2007</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3258,10 +3269,10 @@
         <v>2007</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3275,10 +3286,10 @@
         <v>2007</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3292,10 +3303,10 @@
         <v>2009</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3309,10 +3320,10 @@
         <v>2009</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3326,10 +3337,10 @@
         <v>2009</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
@@ -3343,10 +3354,10 @@
         <v>2009</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3359,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -3375,19 +3386,19 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3401,10 +3412,10 @@
         <v>2010</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3418,10 +3429,10 @@
         <v>2010</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3435,10 +3446,10 @@
         <v>2010</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3452,10 +3463,10 @@
         <v>2010</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3469,10 +3480,10 @@
         <v>2011</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3486,10 +3497,10 @@
         <v>2011</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3503,10 +3514,10 @@
         <v>2011</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3520,11 +3531,13 @@
         <v>2011</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69" t="s">
-        <v>285</v>
+        <v>291</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3538,10 +3551,10 @@
         <v>2012</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3555,10 +3568,10 @@
         <v>2012</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3572,10 +3585,10 @@
         <v>2012</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3589,10 +3602,10 @@
         <v>2012</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3606,10 +3619,10 @@
         <v>2013</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3623,10 +3636,10 @@
         <v>2013</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3640,10 +3653,10 @@
         <v>2015</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3657,10 +3670,10 @@
         <v>2015</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3674,10 +3687,10 @@
         <v>2016</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3691,10 +3704,10 @@
         <v>2016</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3708,10 +3721,10 @@
         <v>2016</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3725,10 +3738,10 @@
         <v>2016</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3742,10 +3755,10 @@
         <v>2016</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3759,10 +3772,10 @@
         <v>2016</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3776,10 +3789,10 @@
         <v>2017</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3793,10 +3806,10 @@
         <v>2017</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3810,10 +3823,10 @@
         <v>2017</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3827,10 +3840,10 @@
         <v>2017</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3844,10 +3857,10 @@
         <v>2018</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3861,10 +3874,10 @@
         <v>2018</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3878,10 +3891,10 @@
         <v>2018</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3895,10 +3908,10 @@
         <v>2018</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -3912,10 +3925,10 @@
         <v>2019</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -3929,10 +3942,10 @@
         <v>2019</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
@@ -3946,10 +3959,10 @@
         <v>2019</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3980,19 +3993,19 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -4006,10 +4019,10 @@
         <v>2020</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4023,10 +4036,10 @@
         <v>2020</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4040,10 +4053,10 @@
         <v>2020</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -4057,10 +4070,10 @@
         <v>2020</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4074,10 +4087,10 @@
         <v>2021</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4091,10 +4104,10 @@
         <v>2021</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4108,10 +4121,10 @@
         <v>2021</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4125,10 +4138,10 @@
         <v>2021</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4142,10 +4155,10 @@
         <v>2021</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -4159,10 +4172,10 @@
         <v>2021</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -4176,10 +4189,10 @@
         <v>2021</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -4193,10 +4206,10 @@
         <v>2021</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4210,10 +4223,10 @@
         <v>2021</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4227,10 +4240,10 @@
         <v>2022</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -4244,10 +4257,10 @@
         <v>2022</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -4261,10 +4274,10 @@
         <v>2022</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.6">
@@ -4278,10 +4291,10 @@
         <v>2022</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4295,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4309,19 +4322,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4333,10 +4346,10 @@
         <v>1970</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4348,10 +4361,10 @@
         <v>1970</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4361,10 +4374,10 @@
         <v>1970</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4374,10 +4387,10 @@
         <v>1973</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4387,10 +4400,10 @@
         <v>1974</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4400,10 +4413,10 @@
         <v>1975</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4413,10 +4426,10 @@
         <v>1976</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4426,10 +4439,10 @@
         <v>1977</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4439,10 +4452,10 @@
         <v>1978</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4452,10 +4465,10 @@
         <v>1978</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4465,10 +4478,10 @@
         <v>1979</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="35.15" x14ac:dyDescent="0.55000000000000004">
@@ -4480,10 +4493,10 @@
         <v>1980</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4495,10 +4508,10 @@
         <v>1981</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4508,10 +4521,10 @@
         <v>1982</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4521,10 +4534,10 @@
         <v>1983</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4534,10 +4547,10 @@
         <v>1983</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4547,10 +4560,10 @@
         <v>1984</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4560,10 +4573,10 @@
         <v>1985</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4573,10 +4586,10 @@
         <v>1986</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4586,10 +4599,10 @@
         <v>1987</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4599,10 +4612,10 @@
         <v>1987</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.6" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4612,10 +4625,10 @@
         <v>1988</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -4627,10 +4640,10 @@
         <v>1990</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4642,10 +4655,10 @@
         <v>1991</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4655,10 +4668,10 @@
         <v>1991</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4668,10 +4681,10 @@
         <v>1992</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4681,10 +4694,10 @@
         <v>1994</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4694,10 +4707,10 @@
         <v>1994</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4707,10 +4720,10 @@
         <v>1995</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4720,10 +4733,10 @@
         <v>1996</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4733,10 +4746,10 @@
         <v>1996</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4746,10 +4759,10 @@
         <v>1999</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.6" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4759,10 +4772,10 @@
         <v>1999</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -4774,10 +4787,10 @@
         <v>2000</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4789,10 +4802,10 @@
         <v>2001</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4802,10 +4815,10 @@
         <v>2001</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.15" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4815,10 +4828,10 @@
         <v>2001</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4828,10 +4841,10 @@
         <v>2002</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4841,10 +4854,10 @@
         <v>2002</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4854,10 +4867,10 @@
         <v>2002</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4867,10 +4880,10 @@
         <v>2005</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4880,10 +4893,10 @@
         <v>2005</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4893,10 +4906,10 @@
         <v>2005</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4906,10 +4919,10 @@
         <v>2005</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4919,10 +4932,10 @@
         <v>2005</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.15" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4932,10 +4945,10 @@
         <v>2006</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4945,10 +4958,10 @@
         <v>2007</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E48" s="52" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4958,10 +4971,10 @@
         <v>2007</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E49" s="52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4971,10 +4984,10 @@
         <v>2007</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4984,10 +4997,10 @@
         <v>2007</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4997,10 +5010,10 @@
         <v>2009</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5010,10 +5023,10 @@
         <v>2009</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E53" s="52" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5023,10 +5036,10 @@
         <v>2009</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54" s="52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5036,25 +5049,25 @@
         <v>2009</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="15"/>
       <c r="B56" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C56" s="6">
         <v>2010</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5066,10 +5079,10 @@
         <v>2010</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5079,10 +5092,10 @@
         <v>2010</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5092,10 +5105,10 @@
         <v>2010</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5105,10 +5118,10 @@
         <v>2011</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5118,10 +5131,10 @@
         <v>2012</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5131,10 +5144,10 @@
         <v>2013</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5144,10 +5157,10 @@
         <v>2011</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5157,10 +5170,10 @@
         <v>2010</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5170,10 +5183,10 @@
         <v>2011</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E65" s="48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5183,10 +5196,10 @@
         <v>2012</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5196,10 +5209,10 @@
         <v>2012</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5209,10 +5222,10 @@
         <v>2012</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5222,10 +5235,10 @@
         <v>2013</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5235,10 +5248,10 @@
         <v>2015</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5248,10 +5261,10 @@
         <v>2015</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5261,10 +5274,10 @@
         <v>2016</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5274,10 +5287,10 @@
         <v>2016</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5287,10 +5300,10 @@
         <v>2016</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5300,10 +5313,10 @@
         <v>2016</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5313,10 +5326,10 @@
         <v>2016</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5326,10 +5339,10 @@
         <v>2016</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5339,10 +5352,10 @@
         <v>2017</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5352,10 +5365,10 @@
         <v>2017</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5365,10 +5378,10 @@
         <v>2017</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5378,10 +5391,10 @@
         <v>2017</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5391,10 +5404,10 @@
         <v>2018</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E82" s="52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5404,10 +5417,10 @@
         <v>2018</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="47" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5417,10 +5430,10 @@
         <v>2018</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5430,10 +5443,10 @@
         <v>2018</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="52" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5443,10 +5456,10 @@
         <v>2019</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="47" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5456,10 +5469,10 @@
         <v>2019</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E87" s="47" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F87" s="61"/>
       <c r="G87" s="61"/>
@@ -5472,10 +5485,10 @@
         <v>2019</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E88" s="50" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F88" s="61"/>
       <c r="G88" s="61"/>
@@ -5484,16 +5497,16 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="15"/>
       <c r="B89" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C89" s="6">
         <v>2020</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F89" s="61"/>
       <c r="G89" s="62"/>
@@ -5508,10 +5521,10 @@
         <v>2020</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F90" s="61"/>
       <c r="G90" s="62"/>
@@ -5524,10 +5537,10 @@
         <v>2020</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" s="57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F91" s="61"/>
       <c r="G91" s="61"/>
@@ -5540,10 +5553,10 @@
         <v>2020</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F92" s="61"/>
       <c r="G92" s="61"/>
@@ -5556,10 +5569,10 @@
         <v>2020</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
@@ -5572,10 +5585,10 @@
         <v>2021</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F94" s="61"/>
       <c r="G94" s="61"/>
@@ -5588,10 +5601,10 @@
         <v>2021</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F95" s="61"/>
       <c r="G95" s="61"/>
@@ -5604,10 +5617,10 @@
         <v>2021</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F96" s="61"/>
       <c r="G96" s="61"/>
@@ -5620,10 +5633,10 @@
         <v>2021</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="35.15" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5633,10 +5646,10 @@
         <v>2021</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5646,10 +5659,10 @@
         <v>2021</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5659,10 +5672,10 @@
         <v>2021</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5672,10 +5685,10 @@
         <v>2021</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5685,10 +5698,10 @@
         <v>2021</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="35.15" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5698,10 +5711,10 @@
         <v>2022</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5711,10 +5724,10 @@
         <v>2022</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5724,10 +5737,10 @@
         <v>2022</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E105" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -5737,10 +5750,10 @@
         <v>2022</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E106" s="59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
